--- a/offline/variants_data/coldwarredux/Cold_War_Redux.xlsx
+++ b/offline/variants_data/coldwarredux/Cold_War_Redux.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="203">
   <si>
     <t xml:space="preserve">AfE</t>
   </si>
@@ -612,6 +612,24 @@
   </si>
   <si>
     <t xml:space="preserve">Corée du Nord côte Mer Jaune</t>
+  </si>
+  <si>
+    <t xml:space="preserve">type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">centre</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cote speciale</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1=c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2=t</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3=m</t>
   </si>
 </sst>
 </file>
@@ -713,17 +731,17 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G1048576"/>
+  <dimension ref="A1:H1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A61" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F90" activeCellId="0" sqref="F90:G103"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A94" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C104" activeCellId="0" sqref="C104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.53125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="6.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="56"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="3.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="7.83"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2066,13 +2084,13 @@
       <c r="D90" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="E90" s="1" t="s">
+      <c r="F90" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="F90" s="0" t="n">
+      <c r="G90" s="1" t="n">
         <v>21</v>
       </c>
-      <c r="G90" s="0" t="n">
+      <c r="H90" s="1" t="n">
         <v>4</v>
       </c>
     </row>
@@ -2086,13 +2104,13 @@
       <c r="D91" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="E91" s="1" t="s">
+      <c r="F91" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="F91" s="0" t="n">
+      <c r="G91" s="1" t="n">
         <v>21</v>
       </c>
-      <c r="G91" s="0" t="n">
+      <c r="H91" s="1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2106,13 +2124,13 @@
       <c r="D92" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="E92" s="1" t="s">
+      <c r="F92" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="F92" s="0" t="n">
+      <c r="G92" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="G92" s="0" t="n">
+      <c r="H92" s="1" t="n">
         <v>4</v>
       </c>
     </row>
@@ -2126,13 +2144,13 @@
       <c r="D93" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="E93" s="1" t="s">
+      <c r="F93" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="F93" s="0" t="n">
+      <c r="G93" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="G93" s="0" t="n">
+      <c r="H93" s="1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2146,13 +2164,13 @@
       <c r="D94" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="E94" s="1" t="s">
+      <c r="F94" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="F94" s="0" t="n">
+      <c r="G94" s="1" t="n">
         <v>54</v>
       </c>
-      <c r="G94" s="0" t="n">
+      <c r="H94" s="1" t="n">
         <v>4</v>
       </c>
     </row>
@@ -2166,13 +2184,13 @@
       <c r="D95" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="E95" s="1" t="s">
+      <c r="F95" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="F95" s="0" t="n">
+      <c r="G95" s="1" t="n">
         <v>54</v>
       </c>
-      <c r="G95" s="0" t="n">
+      <c r="H95" s="1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2186,13 +2204,13 @@
       <c r="D96" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="E96" s="1" t="s">
+      <c r="F96" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="F96" s="0" t="n">
+      <c r="G96" s="1" t="n">
         <v>17</v>
       </c>
-      <c r="G96" s="0" t="n">
+      <c r="H96" s="1" t="n">
         <v>4</v>
       </c>
     </row>
@@ -2206,13 +2224,13 @@
       <c r="D97" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="E97" s="1" t="s">
+      <c r="F97" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="F97" s="0" t="n">
+      <c r="G97" s="1" t="n">
         <v>17</v>
       </c>
-      <c r="G97" s="0" t="n">
+      <c r="H97" s="1" t="n">
         <v>2</v>
       </c>
     </row>
@@ -2226,13 +2244,13 @@
       <c r="D98" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="E98" s="1" t="s">
+      <c r="F98" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="F98" s="0" t="n">
+      <c r="G98" s="1" t="n">
         <v>27</v>
       </c>
-      <c r="G98" s="0" t="n">
+      <c r="H98" s="1" t="n">
         <v>2</v>
       </c>
     </row>
@@ -2246,13 +2264,13 @@
       <c r="D99" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="E99" s="1" t="s">
+      <c r="F99" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="F99" s="0" t="n">
+      <c r="G99" s="1" t="n">
         <v>27</v>
       </c>
-      <c r="G99" s="0" t="n">
+      <c r="H99" s="1" t="n">
         <v>3</v>
       </c>
     </row>
@@ -2266,13 +2284,13 @@
       <c r="D100" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="E100" s="1" t="s">
+      <c r="F100" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="F100" s="0" t="n">
+      <c r="G100" s="1" t="n">
         <v>44</v>
       </c>
-      <c r="G100" s="0" t="n">
+      <c r="H100" s="1" t="n">
         <v>3</v>
       </c>
     </row>
@@ -2286,13 +2304,13 @@
       <c r="D101" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="E101" s="1" t="s">
+      <c r="F101" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="F101" s="0" t="n">
+      <c r="G101" s="1" t="n">
         <v>44</v>
       </c>
-      <c r="G101" s="0" t="n">
+      <c r="H101" s="1" t="n">
         <v>2</v>
       </c>
     </row>
@@ -2306,13 +2324,13 @@
       <c r="D102" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="E102" s="1" t="s">
+      <c r="F102" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="F102" s="0" t="n">
+      <c r="G102" s="1" t="n">
         <v>19</v>
       </c>
-      <c r="G102" s="0" t="n">
+      <c r="H102" s="1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2326,14 +2344,40 @@
       <c r="D103" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="E103" s="1" t="s">
+      <c r="F103" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="F103" s="0" t="n">
+      <c r="G103" s="1" t="n">
         <v>19</v>
       </c>
-      <c r="G103" s="0" t="n">
+      <c r="H103" s="1" t="n">
         <v>4</v>
+      </c>
+    </row>
+    <row r="104" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D104" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="E104" s="0" t="s">
+        <v>198</v>
+      </c>
+      <c r="F104" s="0" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="105" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D105" s="1" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="106" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D106" s="1" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="107" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D107" s="1" t="s">
+        <v>202</v>
       </c>
     </row>
     <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -2356,8 +2400,8 @@
   </sheetPr>
   <dimension ref="A1:C28"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C28" activeCellId="1" sqref="F90:G103 C28"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C28" activeCellId="0" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14453125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/offline/variants_data/coldwarredux/Cold_War_Redux.xlsx
+++ b/offline/variants_data/coldwarredux/Cold_War_Redux.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="zones" sheetId="1" state="visible" r:id="rId2"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="203">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="205">
   <si>
     <t xml:space="preserve">AfE</t>
   </si>
@@ -48,6 +48,12 @@
   </si>
   <si>
     <t xml:space="preserve">c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alb</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Albanie</t>
   </si>
   <si>
     <t xml:space="preserve">AlE</t>
@@ -733,8 +739,8 @@
   </sheetPr>
   <dimension ref="A1:H1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A94" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C104" activeCellId="0" sqref="C104"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B110" activeCellId="0" sqref="B110"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.53125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -850,6 +856,9 @@
       <c r="D7" s="1" t="n">
         <v>1</v>
       </c>
+      <c r="E7" s="1" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="n">
@@ -863,9 +872,6 @@
       </c>
       <c r="D8" s="1" t="n">
         <v>1</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -881,6 +887,9 @@
       <c r="D9" s="1" t="n">
         <v>1</v>
       </c>
+      <c r="E9" s="1" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="n">
@@ -907,7 +916,7 @@
         <v>22</v>
       </c>
       <c r="D11" s="1" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -935,10 +944,7 @@
         <v>26</v>
       </c>
       <c r="D13" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -952,7 +958,10 @@
         <v>28</v>
       </c>
       <c r="D14" s="1" t="n">
-        <v>3</v>
+        <v>1</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -966,7 +975,7 @@
         <v>30</v>
       </c>
       <c r="D15" s="1" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -982,9 +991,6 @@
       <c r="D16" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="E16" s="1" t="s">
-        <v>8</v>
-      </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="n">
@@ -999,6 +1005,9 @@
       <c r="D17" s="1" t="n">
         <v>1</v>
       </c>
+      <c r="E17" s="1" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="n">
@@ -1041,9 +1050,6 @@
       <c r="D20" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="E20" s="1" t="s">
-        <v>8</v>
-      </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="n">
@@ -1058,6 +1064,9 @@
       <c r="D21" s="1" t="n">
         <v>1</v>
       </c>
+      <c r="E21" s="1" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="n">
@@ -1072,9 +1081,6 @@
       <c r="D22" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="E22" s="1" t="s">
-        <v>8</v>
-      </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="n">
@@ -1089,6 +1095,9 @@
       <c r="D23" s="1" t="n">
         <v>1</v>
       </c>
+      <c r="E23" s="1" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="n">
@@ -1103,9 +1112,6 @@
       <c r="D24" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="E24" s="1" t="s">
-        <v>8</v>
-      </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="n">
@@ -1120,6 +1126,9 @@
       <c r="D25" s="1" t="n">
         <v>1</v>
       </c>
+      <c r="E25" s="1" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="n">
@@ -1148,9 +1157,6 @@
       <c r="D27" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="E27" s="1" t="s">
-        <v>8</v>
-      </c>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="n">
@@ -1163,7 +1169,10 @@
         <v>56</v>
       </c>
       <c r="D28" s="1" t="n">
-        <v>3</v>
+        <v>1</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1191,10 +1200,7 @@
         <v>60</v>
       </c>
       <c r="D30" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="E30" s="1" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1208,7 +1214,10 @@
         <v>62</v>
       </c>
       <c r="D31" s="1" t="n">
-        <v>3</v>
+        <v>1</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1222,7 +1231,7 @@
         <v>64</v>
       </c>
       <c r="D32" s="1" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1252,9 +1261,6 @@
       <c r="D34" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="E34" s="1" t="s">
-        <v>8</v>
-      </c>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="1" t="n">
@@ -1269,6 +1275,9 @@
       <c r="D35" s="1" t="n">
         <v>1</v>
       </c>
+      <c r="E35" s="1" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="1" t="n">
@@ -1283,9 +1292,6 @@
       <c r="D36" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="E36" s="1" t="s">
-        <v>8</v>
-      </c>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="1" t="n">
@@ -1317,6 +1323,9 @@
       <c r="D38" s="1" t="n">
         <v>1</v>
       </c>
+      <c r="E38" s="1" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="1" t="n">
@@ -1331,9 +1340,6 @@
       <c r="D39" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="E39" s="1" t="s">
-        <v>8</v>
-      </c>
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="1" t="n">
@@ -1348,6 +1354,9 @@
       <c r="D40" s="1" t="n">
         <v>1</v>
       </c>
+      <c r="E40" s="1" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="1" t="n">
@@ -1362,9 +1371,6 @@
       <c r="D41" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="E41" s="1" t="s">
-        <v>8</v>
-      </c>
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="1" t="n">
@@ -1379,6 +1385,9 @@
       <c r="D42" s="1" t="n">
         <v>1</v>
       </c>
+      <c r="E42" s="1" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="1" t="n">
@@ -1393,9 +1402,6 @@
       <c r="D43" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="E43" s="1" t="s">
-        <v>8</v>
-      </c>
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="1" t="n">
@@ -1427,6 +1433,9 @@
       <c r="D45" s="1" t="n">
         <v>1</v>
       </c>
+      <c r="E45" s="1" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="1" t="n">
@@ -1467,7 +1476,7 @@
         <v>96</v>
       </c>
       <c r="D48" s="1" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1551,7 +1560,7 @@
         <v>108</v>
       </c>
       <c r="D54" s="1" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1565,7 +1574,7 @@
         <v>110</v>
       </c>
       <c r="D55" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1579,7 +1588,7 @@
         <v>112</v>
       </c>
       <c r="D56" s="1" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1677,7 +1686,7 @@
         <v>126</v>
       </c>
       <c r="D63" s="1" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1693,9 +1702,6 @@
       <c r="D64" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="E64" s="1" t="s">
-        <v>8</v>
-      </c>
     </row>
     <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="1" t="n">
@@ -1708,7 +1714,10 @@
         <v>130</v>
       </c>
       <c r="D65" s="1" t="n">
-        <v>3</v>
+        <v>2</v>
+      </c>
+      <c r="E65" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1722,7 +1731,7 @@
         <v>132</v>
       </c>
       <c r="D66" s="1" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1738,9 +1747,6 @@
       <c r="D67" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="E67" s="1" t="s">
-        <v>8</v>
-      </c>
     </row>
     <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="1" t="n">
@@ -1753,7 +1759,10 @@
         <v>136</v>
       </c>
       <c r="D68" s="1" t="n">
-        <v>3</v>
+        <v>1</v>
+      </c>
+      <c r="E68" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1781,7 +1790,7 @@
         <v>140</v>
       </c>
       <c r="D70" s="1" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1795,7 +1804,7 @@
         <v>142</v>
       </c>
       <c r="D71" s="1" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1809,7 +1818,7 @@
         <v>144</v>
       </c>
       <c r="D72" s="1" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1825,9 +1834,6 @@
       <c r="D73" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="E73" s="1" t="s">
-        <v>8</v>
-      </c>
     </row>
     <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="1" t="n">
@@ -1840,7 +1846,10 @@
         <v>148</v>
       </c>
       <c r="D74" s="1" t="n">
-        <v>3</v>
+        <v>1</v>
+      </c>
+      <c r="E74" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1854,7 +1863,7 @@
         <v>150</v>
       </c>
       <c r="D75" s="1" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1884,9 +1893,6 @@
       <c r="D77" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="E77" s="1" t="s">
-        <v>8</v>
-      </c>
     </row>
     <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="1" t="n">
@@ -1901,6 +1907,9 @@
       <c r="D78" s="1" t="n">
         <v>1</v>
       </c>
+      <c r="E78" s="1" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="1" t="n">
@@ -1929,9 +1938,6 @@
       <c r="D80" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="E80" s="1" t="s">
-        <v>8</v>
-      </c>
     </row>
     <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="1" t="n">
@@ -2014,6 +2020,9 @@
       <c r="D85" s="1" t="n">
         <v>1</v>
       </c>
+      <c r="E85" s="1" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="1" t="n">
@@ -2026,10 +2035,7 @@
         <v>172</v>
       </c>
       <c r="D86" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="E86" s="1" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2043,7 +2049,10 @@
         <v>174</v>
       </c>
       <c r="D87" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="E87" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2078,20 +2087,14 @@
       <c r="A90" s="1" t="n">
         <v>90</v>
       </c>
+      <c r="B90" s="1" t="s">
+        <v>179</v>
+      </c>
       <c r="C90" s="1" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="D90" s="1" t="n">
         <v>1</v>
-      </c>
-      <c r="F90" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="G90" s="1" t="n">
-        <v>21</v>
-      </c>
-      <c r="H90" s="1" t="n">
-        <v>4</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2111,7 +2114,7 @@
         <v>21</v>
       </c>
       <c r="H91" s="1" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2125,13 +2128,13 @@
         <v>1</v>
       </c>
       <c r="F92" s="1" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="G92" s="1" t="n">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="H92" s="1" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2139,7 +2142,7 @@
         <v>93</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D93" s="1" t="n">
         <v>1</v>
@@ -2151,7 +2154,7 @@
         <v>7</v>
       </c>
       <c r="H93" s="1" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2159,19 +2162,19 @@
         <v>94</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D94" s="1" t="n">
         <v>1</v>
       </c>
       <c r="F94" s="1" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="G94" s="1" t="n">
-        <v>54</v>
+        <v>7</v>
       </c>
       <c r="H94" s="1" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2179,7 +2182,7 @@
         <v>95</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="D95" s="1" t="n">
         <v>1</v>
@@ -2191,7 +2194,7 @@
         <v>54</v>
       </c>
       <c r="H95" s="1" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2199,19 +2202,19 @@
         <v>96</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="D96" s="1" t="n">
         <v>1</v>
       </c>
       <c r="F96" s="1" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="G96" s="1" t="n">
-        <v>17</v>
+        <v>54</v>
       </c>
       <c r="H96" s="1" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2219,19 +2222,19 @@
         <v>97</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D97" s="1" t="n">
         <v>1</v>
       </c>
       <c r="F97" s="1" t="s">
-        <v>189</v>
+        <v>182</v>
       </c>
       <c r="G97" s="1" t="n">
         <v>17</v>
       </c>
       <c r="H97" s="1" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2245,10 +2248,10 @@
         <v>1</v>
       </c>
       <c r="F98" s="1" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="G98" s="1" t="n">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="H98" s="1" t="n">
         <v>2</v>
@@ -2259,19 +2262,19 @@
         <v>99</v>
       </c>
       <c r="C99" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="D99" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F99" s="1" t="s">
         <v>191</v>
-      </c>
-      <c r="D99" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="F99" s="1" t="s">
-        <v>192</v>
       </c>
       <c r="G99" s="1" t="n">
         <v>27</v>
       </c>
       <c r="H99" s="1" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2285,10 +2288,10 @@
         <v>1</v>
       </c>
       <c r="F100" s="1" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="G100" s="1" t="n">
-        <v>44</v>
+        <v>27</v>
       </c>
       <c r="H100" s="1" t="n">
         <v>3</v>
@@ -2299,19 +2302,19 @@
         <v>101</v>
       </c>
       <c r="C101" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="D101" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F101" s="1" t="s">
         <v>194</v>
-      </c>
-      <c r="D101" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="F101" s="1" t="s">
-        <v>189</v>
       </c>
       <c r="G101" s="1" t="n">
         <v>44</v>
       </c>
       <c r="H101" s="1" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2319,19 +2322,19 @@
         <v>102</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="D102" s="1" t="n">
         <v>1</v>
       </c>
       <c r="F102" s="1" t="s">
-        <v>182</v>
+        <v>191</v>
       </c>
       <c r="G102" s="1" t="n">
-        <v>19</v>
+        <v>44</v>
       </c>
       <c r="H102" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2339,48 +2342,67 @@
         <v>103</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="D103" s="1" t="n">
         <v>1</v>
       </c>
       <c r="F103" s="1" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="G103" s="1" t="n">
         <v>19</v>
       </c>
       <c r="H103" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A104" s="1" t="n">
+        <v>104</v>
+      </c>
+      <c r="C104" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="D104" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F104" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="G104" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="H104" s="1" t="n">
         <v>4</v>
-      </c>
-    </row>
-    <row r="104" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D104" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="E104" s="0" t="s">
-        <v>198</v>
-      </c>
-      <c r="F104" s="0" t="s">
-        <v>199</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D105" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="E105" s="1" t="s">
         <v>200</v>
+      </c>
+      <c r="F105" s="1" t="s">
+        <v>201</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D106" s="1" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D107" s="1" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+        <v>203</v>
+      </c>
+    </row>
+    <row r="108" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D108" s="1" t="s">
+        <v>204</v>
+      </c>
+    </row>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -2400,8 +2422,8 @@
   </sheetPr>
   <dimension ref="A1:C28"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C28" activeCellId="0" sqref="C28"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D34" activeCellId="0" sqref="D34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14453125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2425,10 +2447,10 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2436,10 +2458,10 @@
         <v>3</v>
       </c>
       <c r="B3" s="1" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2447,10 +2469,10 @@
         <v>4</v>
       </c>
       <c r="B4" s="1" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2458,10 +2480,10 @@
         <v>5</v>
       </c>
       <c r="B5" s="1" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2469,10 +2491,10 @@
         <v>6</v>
       </c>
       <c r="B6" s="1" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2480,10 +2502,10 @@
         <v>7</v>
       </c>
       <c r="B7" s="1" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2491,10 +2513,10 @@
         <v>8</v>
       </c>
       <c r="B8" s="1" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2502,10 +2524,10 @@
         <v>9</v>
       </c>
       <c r="B9" s="1" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2513,10 +2535,10 @@
         <v>10</v>
       </c>
       <c r="B10" s="1" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2524,10 +2546,10 @@
         <v>11</v>
       </c>
       <c r="B11" s="1" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2535,10 +2557,10 @@
         <v>12</v>
       </c>
       <c r="B12" s="1" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2546,10 +2568,10 @@
         <v>13</v>
       </c>
       <c r="B13" s="1" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2557,10 +2579,10 @@
         <v>14</v>
       </c>
       <c r="B14" s="1" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2568,10 +2590,10 @@
         <v>15</v>
       </c>
       <c r="B15" s="1" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2579,10 +2601,10 @@
         <v>16</v>
       </c>
       <c r="B16" s="1" t="n">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2590,10 +2612,10 @@
         <v>17</v>
       </c>
       <c r="B17" s="1" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2601,10 +2623,10 @@
         <v>18</v>
       </c>
       <c r="B18" s="1" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2612,10 +2634,10 @@
         <v>19</v>
       </c>
       <c r="B19" s="1" t="n">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2623,10 +2645,10 @@
         <v>20</v>
       </c>
       <c r="B20" s="1" t="n">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2634,10 +2656,10 @@
         <v>21</v>
       </c>
       <c r="B21" s="1" t="n">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2645,10 +2667,10 @@
         <v>22</v>
       </c>
       <c r="B22" s="1" t="n">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2656,10 +2678,10 @@
         <v>23</v>
       </c>
       <c r="B23" s="1" t="n">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2667,10 +2689,10 @@
         <v>24</v>
       </c>
       <c r="B24" s="1" t="n">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2678,10 +2700,10 @@
         <v>25</v>
       </c>
       <c r="B25" s="1" t="n">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2689,10 +2711,10 @@
         <v>26</v>
       </c>
       <c r="B26" s="1" t="n">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2700,10 +2722,10 @@
         <v>27</v>
       </c>
       <c r="B27" s="1" t="n">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2711,10 +2733,10 @@
         <v>28</v>
       </c>
       <c r="B28" s="1" t="n">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
   </sheetData>

--- a/offline/variants_data/coldwarredux/Cold_War_Redux.xlsx
+++ b/offline/variants_data/coldwarredux/Cold_War_Redux.xlsx
@@ -1,17 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\S0131096\Desktop\temp\afjd\afjd-master\offline\variants_data\coldwarredux\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500"/>
   </bookViews>
   <sheets>
-    <sheet name="zones" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="centres" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="zones" sheetId="1" r:id="rId1"/>
+    <sheet name="centres" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="0" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -23,650 +27,632 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="205">
   <si>
-    <t xml:space="preserve">AfE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Afrique de l'Est</t>
-  </si>
-  <si>
-    <t xml:space="preserve">afg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Afghanistan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AfN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Afrique du Nord</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ala</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Alaska</t>
-  </si>
-  <si>
-    <t xml:space="preserve">c</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Alb</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Albanie</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AlE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Allemagne de l'Est</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AlO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Allemagne de l'Ouest</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AmC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Amérique Centrale</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ana</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Anadyr</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Arb</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Arabie</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AsS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Asie du Sud</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ATE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Atlantique Est</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ATO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Atlantique Ouest</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aus</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Australie</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BHU</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Baie d'Hudson</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bng</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bangladesh</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bre</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Brésil</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CaO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Canada Occidental</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cau</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Caucase</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CdN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Corée du Nord</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CdS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Corée du Sud</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Col</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Colombie</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cub</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cuba</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Danemark</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Egy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Egypte</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Finlande</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Flo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Floride</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fra</t>
-  </si>
-  <si>
-    <t xml:space="preserve">France</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GAL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Golfe d'Alaska</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GBE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Golfe du Bengale</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GBr</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Grande Bretagne</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GME</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Golfe du Mexique</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gre</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Grèce</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gro</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Groënland</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Han</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hanoï</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ibe</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ibérie</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ids</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Indonésie</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ind</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Inde</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Irk</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Irak</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Irn</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Iran</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ita</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Italie</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jap</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Japon</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kur</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kurdistan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LAn</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Los Angeles</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Len</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Léningrad</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lev</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Levant</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lib</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Libye</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Man</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mandchourie</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MAR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mer d'Arabie</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MBA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mer Baltique</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MBE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mer de Béring</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MCA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mer des Caraïbes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MCS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mer de Chine Sud</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MDN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mer du Nord</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mex</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mexique</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mid</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Midwest</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MIO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mer Ionienne</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MJN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mer Jaune</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MJP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mer du Japon</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MME</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mer Méditerranée Est</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MMO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mer Méditerranée Ouest</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MNG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mer de Norvège</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MNO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mer Noire</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mon</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mongolie</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Moscou</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MRO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mer Rouge</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nge</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Norvège</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NYo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">New York</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OAR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Océan Arctique</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OIN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Océan Indien</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Our</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Oural</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PAE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pacifique Est</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pak</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pakistan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Panama</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PAO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pacifique Ouest</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Phi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Philippines</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Que</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Québec</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sha</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Shanghaï</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sib</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sibérie</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SoW</t>
-  </si>
-  <si>
-    <t xml:space="preserve">South West</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sue</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Suède</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SVi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sud Vietnam</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Toronto</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tun</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tunisie</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tur</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Turquie</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ukr</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ukraine</t>
-  </si>
-  <si>
-    <t xml:space="preserve">uru</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Urumchi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ven</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vénézuela</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vla</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vladivostok</t>
-  </si>
-  <si>
-    <t xml:space="preserve">You</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Yougoslavie</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Colombie côte Pacifique</t>
-  </si>
-  <si>
-    <t xml:space="preserve">wc</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Colombie côte Atlantique</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ec</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Amérique Centrale  côte Pacifique</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Amérique Centrale  côte Atlantique</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mexique côte Pacifique</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mexique côte Atlantique</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Canada Occidental côte Pacifique</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Canada Occidental côte Arctique</t>
-  </si>
-  <si>
-    <t xml:space="preserve">nc</t>
-  </si>
-  <si>
-    <t xml:space="preserve">France côte Atlantique</t>
-  </si>
-  <si>
-    <t xml:space="preserve">France côte Méditerranée</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sc</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Léningrad côte Baltique</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Léningrad côte Mer de Norvège</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Corée du Nord côte Mer du Japon</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Corée du Nord côte Mer Jaune</t>
-  </si>
-  <si>
-    <t xml:space="preserve">type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">centre</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cote speciale</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1=c</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2=t</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3=m</t>
+    <t>AfE</t>
+  </si>
+  <si>
+    <t>Afrique de l'Est</t>
+  </si>
+  <si>
+    <t>afg</t>
+  </si>
+  <si>
+    <t>Afghanistan</t>
+  </si>
+  <si>
+    <t>AfN</t>
+  </si>
+  <si>
+    <t>Afrique du Nord</t>
+  </si>
+  <si>
+    <t>Ala</t>
+  </si>
+  <si>
+    <t>Alaska</t>
+  </si>
+  <si>
+    <t>c</t>
+  </si>
+  <si>
+    <t>Alb</t>
+  </si>
+  <si>
+    <t>Albanie</t>
+  </si>
+  <si>
+    <t>AlE</t>
+  </si>
+  <si>
+    <t>Allemagne de l'Est</t>
+  </si>
+  <si>
+    <t>AlO</t>
+  </si>
+  <si>
+    <t>Allemagne de l'Ouest</t>
+  </si>
+  <si>
+    <t>AmC</t>
+  </si>
+  <si>
+    <t>Amérique Centrale</t>
+  </si>
+  <si>
+    <t>Ana</t>
+  </si>
+  <si>
+    <t>Anadyr</t>
+  </si>
+  <si>
+    <t>Arb</t>
+  </si>
+  <si>
+    <t>Arabie</t>
+  </si>
+  <si>
+    <t>AsS</t>
+  </si>
+  <si>
+    <t>Asie du Sud</t>
+  </si>
+  <si>
+    <t>ATE</t>
+  </si>
+  <si>
+    <t>Atlantique Est</t>
+  </si>
+  <si>
+    <t>ATO</t>
+  </si>
+  <si>
+    <t>Atlantique Ouest</t>
+  </si>
+  <si>
+    <t>Aus</t>
+  </si>
+  <si>
+    <t>Australie</t>
+  </si>
+  <si>
+    <t>BHU</t>
+  </si>
+  <si>
+    <t>Baie d'Hudson</t>
+  </si>
+  <si>
+    <t>Bng</t>
+  </si>
+  <si>
+    <t>Bangladesh</t>
+  </si>
+  <si>
+    <t>Bre</t>
+  </si>
+  <si>
+    <t>Brésil</t>
+  </si>
+  <si>
+    <t>CaO</t>
+  </si>
+  <si>
+    <t>Canada Occidental</t>
+  </si>
+  <si>
+    <t>Cau</t>
+  </si>
+  <si>
+    <t>Caucase</t>
+  </si>
+  <si>
+    <t>CdN</t>
+  </si>
+  <si>
+    <t>Corée du Nord</t>
+  </si>
+  <si>
+    <t>CdS</t>
+  </si>
+  <si>
+    <t>Corée du Sud</t>
+  </si>
+  <si>
+    <t>Col</t>
+  </si>
+  <si>
+    <t>Colombie</t>
+  </si>
+  <si>
+    <t>Cub</t>
+  </si>
+  <si>
+    <t>Cuba</t>
+  </si>
+  <si>
+    <t>Dan</t>
+  </si>
+  <si>
+    <t>Danemark</t>
+  </si>
+  <si>
+    <t>Egy</t>
+  </si>
+  <si>
+    <t>Egypte</t>
+  </si>
+  <si>
+    <t>Fin</t>
+  </si>
+  <si>
+    <t>Finlande</t>
+  </si>
+  <si>
+    <t>Flo</t>
+  </si>
+  <si>
+    <t>Floride</t>
+  </si>
+  <si>
+    <t>Fra</t>
+  </si>
+  <si>
+    <t>France</t>
+  </si>
+  <si>
+    <t>GAL</t>
+  </si>
+  <si>
+    <t>Golfe d'Alaska</t>
+  </si>
+  <si>
+    <t>GBE</t>
+  </si>
+  <si>
+    <t>Golfe du Bengale</t>
+  </si>
+  <si>
+    <t>GBr</t>
+  </si>
+  <si>
+    <t>Grande Bretagne</t>
+  </si>
+  <si>
+    <t>GME</t>
+  </si>
+  <si>
+    <t>Golfe du Mexique</t>
+  </si>
+  <si>
+    <t>Gre</t>
+  </si>
+  <si>
+    <t>Grèce</t>
+  </si>
+  <si>
+    <t>Gro</t>
+  </si>
+  <si>
+    <t>Groënland</t>
+  </si>
+  <si>
+    <t>Han</t>
+  </si>
+  <si>
+    <t>Hanoï</t>
+  </si>
+  <si>
+    <t>Ibe</t>
+  </si>
+  <si>
+    <t>Ibérie</t>
+  </si>
+  <si>
+    <t>Ids</t>
+  </si>
+  <si>
+    <t>Indonésie</t>
+  </si>
+  <si>
+    <t>Ind</t>
+  </si>
+  <si>
+    <t>Inde</t>
+  </si>
+  <si>
+    <t>Irk</t>
+  </si>
+  <si>
+    <t>Irak</t>
+  </si>
+  <si>
+    <t>Irn</t>
+  </si>
+  <si>
+    <t>Iran</t>
+  </si>
+  <si>
+    <t>Ita</t>
+  </si>
+  <si>
+    <t>Italie</t>
+  </si>
+  <si>
+    <t>Jap</t>
+  </si>
+  <si>
+    <t>Japon</t>
+  </si>
+  <si>
+    <t>Kur</t>
+  </si>
+  <si>
+    <t>Kurdistan</t>
+  </si>
+  <si>
+    <t>LAn</t>
+  </si>
+  <si>
+    <t>Los Angeles</t>
+  </si>
+  <si>
+    <t>Len</t>
+  </si>
+  <si>
+    <t>Léningrad</t>
+  </si>
+  <si>
+    <t>Lev</t>
+  </si>
+  <si>
+    <t>Levant</t>
+  </si>
+  <si>
+    <t>Lib</t>
+  </si>
+  <si>
+    <t>Libye</t>
+  </si>
+  <si>
+    <t>Man</t>
+  </si>
+  <si>
+    <t>Mandchourie</t>
+  </si>
+  <si>
+    <t>MAR</t>
+  </si>
+  <si>
+    <t>Mer d'Arabie</t>
+  </si>
+  <si>
+    <t>MBA</t>
+  </si>
+  <si>
+    <t>Mer Baltique</t>
+  </si>
+  <si>
+    <t>MBE</t>
+  </si>
+  <si>
+    <t>Mer de Béring</t>
+  </si>
+  <si>
+    <t>MCA</t>
+  </si>
+  <si>
+    <t>Mer des Caraïbes</t>
+  </si>
+  <si>
+    <t>MCS</t>
+  </si>
+  <si>
+    <t>Mer de Chine Sud</t>
+  </si>
+  <si>
+    <t>MDN</t>
+  </si>
+  <si>
+    <t>Mer du Nord</t>
+  </si>
+  <si>
+    <t>Mex</t>
+  </si>
+  <si>
+    <t>Mexique</t>
+  </si>
+  <si>
+    <t>mid</t>
+  </si>
+  <si>
+    <t>Midwest</t>
+  </si>
+  <si>
+    <t>MIO</t>
+  </si>
+  <si>
+    <t>Mer Ionienne</t>
+  </si>
+  <si>
+    <t>MJN</t>
+  </si>
+  <si>
+    <t>Mer Jaune</t>
+  </si>
+  <si>
+    <t>MJP</t>
+  </si>
+  <si>
+    <t>Mer du Japon</t>
+  </si>
+  <si>
+    <t>MME</t>
+  </si>
+  <si>
+    <t>Mer Méditerranée Est</t>
+  </si>
+  <si>
+    <t>MMO</t>
+  </si>
+  <si>
+    <t>Mer Méditerranée Ouest</t>
+  </si>
+  <si>
+    <t>MNG</t>
+  </si>
+  <si>
+    <t>Mer de Norvège</t>
+  </si>
+  <si>
+    <t>MNO</t>
+  </si>
+  <si>
+    <t>Mer Noire</t>
+  </si>
+  <si>
+    <t>mon</t>
+  </si>
+  <si>
+    <t>Mongolie</t>
+  </si>
+  <si>
+    <t>mos</t>
+  </si>
+  <si>
+    <t>Moscou</t>
+  </si>
+  <si>
+    <t>MRO</t>
+  </si>
+  <si>
+    <t>Mer Rouge</t>
+  </si>
+  <si>
+    <t>Nge</t>
+  </si>
+  <si>
+    <t>Norvège</t>
+  </si>
+  <si>
+    <t>NYo</t>
+  </si>
+  <si>
+    <t>New York</t>
+  </si>
+  <si>
+    <t>OAR</t>
+  </si>
+  <si>
+    <t>Océan Arctique</t>
+  </si>
+  <si>
+    <t>OIN</t>
+  </si>
+  <si>
+    <t>Océan Indien</t>
+  </si>
+  <si>
+    <t>Our</t>
+  </si>
+  <si>
+    <t>Oural</t>
+  </si>
+  <si>
+    <t>PAE</t>
+  </si>
+  <si>
+    <t>Pacifique Est</t>
+  </si>
+  <si>
+    <t>Pak</t>
+  </si>
+  <si>
+    <t>Pakistan</t>
+  </si>
+  <si>
+    <t>Pan</t>
+  </si>
+  <si>
+    <t>Panama</t>
+  </si>
+  <si>
+    <t>PAO</t>
+  </si>
+  <si>
+    <t>Pacifique Ouest</t>
+  </si>
+  <si>
+    <t>Phi</t>
+  </si>
+  <si>
+    <t>Philippines</t>
+  </si>
+  <si>
+    <t>Que</t>
+  </si>
+  <si>
+    <t>Québec</t>
+  </si>
+  <si>
+    <t>Sha</t>
+  </si>
+  <si>
+    <t>Shanghaï</t>
+  </si>
+  <si>
+    <t>Sib</t>
+  </si>
+  <si>
+    <t>Sibérie</t>
+  </si>
+  <si>
+    <t>SoW</t>
+  </si>
+  <si>
+    <t>South West</t>
+  </si>
+  <si>
+    <t>Sue</t>
+  </si>
+  <si>
+    <t>Suède</t>
+  </si>
+  <si>
+    <t>SVi</t>
+  </si>
+  <si>
+    <t>Sud Vietnam</t>
+  </si>
+  <si>
+    <t>Tor</t>
+  </si>
+  <si>
+    <t>Toronto</t>
+  </si>
+  <si>
+    <t>Tun</t>
+  </si>
+  <si>
+    <t>Tunisie</t>
+  </si>
+  <si>
+    <t>Tur</t>
+  </si>
+  <si>
+    <t>Turquie</t>
+  </si>
+  <si>
+    <t>Ukr</t>
+  </si>
+  <si>
+    <t>Ukraine</t>
+  </si>
+  <si>
+    <t>uru</t>
+  </si>
+  <si>
+    <t>Urumchi</t>
+  </si>
+  <si>
+    <t>Ven</t>
+  </si>
+  <si>
+    <t>Vénézuela</t>
+  </si>
+  <si>
+    <t>Vla</t>
+  </si>
+  <si>
+    <t>Vladivostok</t>
+  </si>
+  <si>
+    <t>You</t>
+  </si>
+  <si>
+    <t>Yougoslavie</t>
+  </si>
+  <si>
+    <t>Colombie côte Pacifique</t>
+  </si>
+  <si>
+    <t>wc</t>
+  </si>
+  <si>
+    <t>Colombie côte Atlantique</t>
+  </si>
+  <si>
+    <t>ec</t>
+  </si>
+  <si>
+    <t>Amérique Centrale  côte Pacifique</t>
+  </si>
+  <si>
+    <t>Amérique Centrale  côte Atlantique</t>
+  </si>
+  <si>
+    <t>Mexique côte Pacifique</t>
+  </si>
+  <si>
+    <t>Mexique côte Atlantique</t>
+  </si>
+  <si>
+    <t>Canada Occidental côte Pacifique</t>
+  </si>
+  <si>
+    <t>Canada Occidental côte Arctique</t>
+  </si>
+  <si>
+    <t>nc</t>
+  </si>
+  <si>
+    <t>France côte Atlantique</t>
+  </si>
+  <si>
+    <t>France côte Méditerranée</t>
+  </si>
+  <si>
+    <t>sc</t>
+  </si>
+  <si>
+    <t>Léningrad côte Baltique</t>
+  </si>
+  <si>
+    <t>Léningrad côte Mer de Norvège</t>
+  </si>
+  <si>
+    <t>Corée du Nord côte Mer du Japon</t>
+  </si>
+  <si>
+    <t>Corée du Nord côte Mer Jaune</t>
+  </si>
+  <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t>centre</t>
+  </si>
+  <si>
+    <t>cote speciale</t>
+  </si>
+  <si>
+    <t>1=c</t>
+  </si>
+  <si>
+    <t>2=t</t>
+  </si>
+  <si>
+    <t>3=m</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="General"/>
-  </numFmts>
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
     </font>
   </fonts>
   <fills count="2">
@@ -678,7 +664,7 @@
     </fill>
   </fills>
   <borders count="1">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
@@ -686,72 +672,307 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4472C4"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:H1048576"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H108"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B110" activeCellId="0" sqref="B110"/>
+    <sheetView tabSelected="1" topLeftCell="A94" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G104" sqref="G104"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.53125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="6.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="56"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="7.83"/>
+    <col min="1" max="1" width="6.54296875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="56" style="1" customWidth="1"/>
+    <col min="4" max="4" width="7.81640625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="n">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1" s="1">
         <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
@@ -760,12 +981,12 @@
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="n">
+      <c r="D1" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A2" s="1">
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -774,12 +995,12 @@
       <c r="C2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="1" t="n">
+      <c r="D2" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="n">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A3" s="1">
         <v>3</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -788,12 +1009,12 @@
       <c r="C3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="1" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="n">
+      <c r="D3" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A4" s="1">
         <v>4</v>
       </c>
       <c r="B4" s="1" t="s">
@@ -802,15 +1023,15 @@
       <c r="C4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="1" t="n">
+      <c r="D4" s="1">
         <v>1</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="n">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A5" s="1">
         <v>5</v>
       </c>
       <c r="B5" s="1" t="s">
@@ -819,15 +1040,15 @@
       <c r="C5" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="1" t="n">
+      <c r="D5" s="1">
         <v>1</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="n">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A6" s="1">
         <v>6</v>
       </c>
       <c r="B6" s="1" t="s">
@@ -836,15 +1057,15 @@
       <c r="C6" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="1" t="n">
+      <c r="D6" s="1">
         <v>1</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1" t="n">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A7" s="1">
         <v>7</v>
       </c>
       <c r="B7" s="1" t="s">
@@ -853,15 +1074,15 @@
       <c r="C7" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D7" s="1" t="n">
+      <c r="D7" s="1">
         <v>1</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="1" t="n">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A8" s="1">
         <v>8</v>
       </c>
       <c r="B8" s="1" t="s">
@@ -870,12 +1091,12 @@
       <c r="C8" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D8" s="1" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="1" t="n">
+      <c r="D8" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A9" s="1">
         <v>9</v>
       </c>
       <c r="B9" s="1" t="s">
@@ -884,15 +1105,15 @@
       <c r="C9" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D9" s="1" t="n">
+      <c r="D9" s="1">
         <v>1</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="1" t="n">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A10" s="1">
         <v>10</v>
       </c>
       <c r="B10" s="1" t="s">
@@ -901,12 +1122,12 @@
       <c r="C10" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D10" s="1" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="1" t="n">
+      <c r="D10" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A11" s="1">
         <v>11</v>
       </c>
       <c r="B11" s="1" t="s">
@@ -915,12 +1136,12 @@
       <c r="C11" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D11" s="1" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="1" t="n">
+      <c r="D11" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A12" s="1">
         <v>12</v>
       </c>
       <c r="B12" s="1" t="s">
@@ -929,12 +1150,12 @@
       <c r="C12" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D12" s="1" t="n">
+      <c r="D12" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="1" t="n">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A13" s="1">
         <v>13</v>
       </c>
       <c r="B13" s="1" t="s">
@@ -943,12 +1164,12 @@
       <c r="C13" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D13" s="1" t="n">
+      <c r="D13" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="1" t="n">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A14" s="1">
         <v>14</v>
       </c>
       <c r="B14" s="1" t="s">
@@ -957,15 +1178,15 @@
       <c r="C14" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D14" s="1" t="n">
+      <c r="D14" s="1">
         <v>1</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="1" t="n">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A15" s="1">
         <v>15</v>
       </c>
       <c r="B15" s="1" t="s">
@@ -974,12 +1195,12 @@
       <c r="C15" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D15" s="1" t="n">
+      <c r="D15" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="1" t="n">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A16" s="1">
         <v>16</v>
       </c>
       <c r="B16" s="1" t="s">
@@ -988,12 +1209,12 @@
       <c r="C16" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D16" s="1" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="1" t="n">
+      <c r="D16" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A17" s="1">
         <v>17</v>
       </c>
       <c r="B17" s="1" t="s">
@@ -1002,15 +1223,15 @@
       <c r="C17" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D17" s="1" t="n">
+      <c r="D17" s="1">
         <v>1</v>
       </c>
       <c r="E17" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="1" t="n">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A18" s="1">
         <v>18</v>
       </c>
       <c r="B18" s="1" t="s">
@@ -1019,12 +1240,12 @@
       <c r="C18" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D18" s="1" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="1" t="n">
+      <c r="D18" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A19" s="1">
         <v>19</v>
       </c>
       <c r="B19" s="1" t="s">
@@ -1033,12 +1254,12 @@
       <c r="C19" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D19" s="1" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="1" t="n">
+      <c r="D19" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A20" s="1">
         <v>20</v>
       </c>
       <c r="B20" s="1" t="s">
@@ -1047,12 +1268,12 @@
       <c r="C20" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D20" s="1" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="1" t="n">
+      <c r="D20" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A21" s="1">
         <v>21</v>
       </c>
       <c r="B21" s="1" t="s">
@@ -1061,15 +1282,15 @@
       <c r="C21" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D21" s="1" t="n">
+      <c r="D21" s="1">
         <v>1</v>
       </c>
       <c r="E21" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="1" t="n">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A22" s="1">
         <v>22</v>
       </c>
       <c r="B22" s="1" t="s">
@@ -1078,12 +1299,12 @@
       <c r="C22" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="D22" s="1" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="1" t="n">
+      <c r="D22" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A23" s="1">
         <v>23</v>
       </c>
       <c r="B23" s="1" t="s">
@@ -1092,15 +1313,15 @@
       <c r="C23" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="D23" s="1" t="n">
+      <c r="D23" s="1">
         <v>1</v>
       </c>
       <c r="E23" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="1" t="n">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A24" s="1">
         <v>24</v>
       </c>
       <c r="B24" s="1" t="s">
@@ -1109,12 +1330,12 @@
       <c r="C24" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="D24" s="1" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="1" t="n">
+      <c r="D24" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A25" s="1">
         <v>25</v>
       </c>
       <c r="B25" s="1" t="s">
@@ -1123,15 +1344,15 @@
       <c r="C25" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="D25" s="1" t="n">
+      <c r="D25" s="1">
         <v>1</v>
       </c>
       <c r="E25" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="1" t="n">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A26" s="1">
         <v>26</v>
       </c>
       <c r="B26" s="1" t="s">
@@ -1140,12 +1361,12 @@
       <c r="C26" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="D26" s="1" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="1" t="n">
+      <c r="D26" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A27" s="1">
         <v>27</v>
       </c>
       <c r="B27" s="1" t="s">
@@ -1154,12 +1375,12 @@
       <c r="C27" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="D27" s="1" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="1" t="n">
+      <c r="D27" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A28" s="1">
         <v>28</v>
       </c>
       <c r="B28" s="1" t="s">
@@ -1168,15 +1389,15 @@
       <c r="C28" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="D28" s="1" t="n">
+      <c r="D28" s="1">
         <v>1</v>
       </c>
       <c r="E28" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="1" t="n">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A29" s="1">
         <v>29</v>
       </c>
       <c r="B29" s="1" t="s">
@@ -1185,12 +1406,12 @@
       <c r="C29" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="D29" s="1" t="n">
+      <c r="D29" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="1" t="n">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A30" s="1">
         <v>30</v>
       </c>
       <c r="B30" s="1" t="s">
@@ -1199,12 +1420,12 @@
       <c r="C30" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="D30" s="1" t="n">
+      <c r="D30" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="1" t="n">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A31" s="1">
         <v>31</v>
       </c>
       <c r="B31" s="1" t="s">
@@ -1213,15 +1434,15 @@
       <c r="C31" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="D31" s="1" t="n">
+      <c r="D31" s="1">
         <v>1</v>
       </c>
       <c r="E31" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="1" t="n">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A32" s="1">
         <v>32</v>
       </c>
       <c r="B32" s="1" t="s">
@@ -1230,12 +1451,12 @@
       <c r="C32" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D32" s="1" t="n">
+      <c r="D32" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="1" t="n">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A33" s="1">
         <v>33</v>
       </c>
       <c r="B33" s="1" t="s">
@@ -1244,12 +1465,12 @@
       <c r="C33" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="D33" s="1" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="1" t="n">
+      <c r="D33" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A34" s="1">
         <v>34</v>
       </c>
       <c r="B34" s="1" t="s">
@@ -1258,12 +1479,12 @@
       <c r="C34" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="D34" s="1" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="1" t="n">
+      <c r="D34" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A35" s="1">
         <v>35</v>
       </c>
       <c r="B35" s="1" t="s">
@@ -1272,15 +1493,15 @@
       <c r="C35" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="D35" s="1" t="n">
+      <c r="D35" s="1">
         <v>1</v>
       </c>
       <c r="E35" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="1" t="n">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A36" s="1">
         <v>36</v>
       </c>
       <c r="B36" s="1" t="s">
@@ -1289,12 +1510,12 @@
       <c r="C36" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D36" s="1" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="1" t="n">
+      <c r="D36" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A37" s="1">
         <v>37</v>
       </c>
       <c r="B37" s="1" t="s">
@@ -1303,15 +1524,15 @@
       <c r="C37" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="D37" s="1" t="n">
+      <c r="D37" s="1">
         <v>1</v>
       </c>
       <c r="E37" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="1" t="n">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A38" s="1">
         <v>38</v>
       </c>
       <c r="B38" s="1" t="s">
@@ -1320,15 +1541,15 @@
       <c r="C38" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="D38" s="1" t="n">
+      <c r="D38" s="1">
         <v>1</v>
       </c>
       <c r="E38" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="1" t="n">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A39" s="1">
         <v>39</v>
       </c>
       <c r="B39" s="1" t="s">
@@ -1337,12 +1558,12 @@
       <c r="C39" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="D39" s="1" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="1" t="n">
+      <c r="D39" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A40" s="1">
         <v>40</v>
       </c>
       <c r="B40" s="1" t="s">
@@ -1351,15 +1572,15 @@
       <c r="C40" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D40" s="1" t="n">
+      <c r="D40" s="1">
         <v>1</v>
       </c>
       <c r="E40" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="1" t="n">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A41" s="1">
         <v>41</v>
       </c>
       <c r="B41" s="1" t="s">
@@ -1368,12 +1589,12 @@
       <c r="C41" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="D41" s="1" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="1" t="n">
+      <c r="D41" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A42" s="1">
         <v>42</v>
       </c>
       <c r="B42" s="1" t="s">
@@ -1382,15 +1603,15 @@
       <c r="C42" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="D42" s="1" t="n">
+      <c r="D42" s="1">
         <v>1</v>
       </c>
       <c r="E42" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="1" t="n">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A43" s="1">
         <v>43</v>
       </c>
       <c r="B43" s="1" t="s">
@@ -1399,12 +1620,12 @@
       <c r="C43" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="D43" s="1" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="1" t="n">
+      <c r="D43" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A44" s="1">
         <v>44</v>
       </c>
       <c r="B44" s="1" t="s">
@@ -1413,15 +1634,15 @@
       <c r="C44" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="D44" s="1" t="n">
+      <c r="D44" s="1">
         <v>1</v>
       </c>
       <c r="E44" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="1" t="n">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A45" s="1">
         <v>45</v>
       </c>
       <c r="B45" s="1" t="s">
@@ -1430,15 +1651,15 @@
       <c r="C45" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="D45" s="1" t="n">
+      <c r="D45" s="1">
         <v>1</v>
       </c>
       <c r="E45" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="1" t="n">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A46" s="1">
         <v>46</v>
       </c>
       <c r="B46" s="1" t="s">
@@ -1447,12 +1668,12 @@
       <c r="C46" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="D46" s="1" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="1" t="n">
+      <c r="D46" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A47" s="1">
         <v>47</v>
       </c>
       <c r="B47" s="1" t="s">
@@ -1461,12 +1682,12 @@
       <c r="C47" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="D47" s="1" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="1" t="n">
+      <c r="D47" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A48" s="1">
         <v>48</v>
       </c>
       <c r="B48" s="1" t="s">
@@ -1475,12 +1696,12 @@
       <c r="C48" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="D48" s="1" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="1" t="n">
+      <c r="D48" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A49" s="1">
         <v>49</v>
       </c>
       <c r="B49" s="1" t="s">
@@ -1489,12 +1710,12 @@
       <c r="C49" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="D49" s="1" t="n">
+      <c r="D49" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="1" t="n">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A50" s="1">
         <v>50</v>
       </c>
       <c r="B50" s="1" t="s">
@@ -1503,12 +1724,12 @@
       <c r="C50" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="D50" s="1" t="n">
+      <c r="D50" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="1" t="n">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A51" s="1">
         <v>51</v>
       </c>
       <c r="B51" s="1" t="s">
@@ -1517,12 +1738,12 @@
       <c r="C51" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="D51" s="1" t="n">
+      <c r="D51" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="1" t="n">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A52" s="1">
         <v>52</v>
       </c>
       <c r="B52" s="1" t="s">
@@ -1531,12 +1752,12 @@
       <c r="C52" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="D52" s="1" t="n">
+      <c r="D52" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="1" t="n">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A53" s="1">
         <v>53</v>
       </c>
       <c r="B53" s="1" t="s">
@@ -1545,12 +1766,12 @@
       <c r="C53" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="D53" s="1" t="n">
+      <c r="D53" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="1" t="n">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A54" s="1">
         <v>54</v>
       </c>
       <c r="B54" s="1" t="s">
@@ -1559,12 +1780,12 @@
       <c r="C54" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="D54" s="1" t="n">
+      <c r="D54" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="1" t="n">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A55" s="1">
         <v>55</v>
       </c>
       <c r="B55" s="1" t="s">
@@ -1573,12 +1794,12 @@
       <c r="C55" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="D55" s="1" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="1" t="n">
+      <c r="D55" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A56" s="1">
         <v>56</v>
       </c>
       <c r="B56" s="1" t="s">
@@ -1587,12 +1808,12 @@
       <c r="C56" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="D56" s="1" t="n">
+      <c r="D56" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="1" t="n">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A57" s="1">
         <v>57</v>
       </c>
       <c r="B57" s="1" t="s">
@@ -1601,12 +1822,12 @@
       <c r="C57" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="D57" s="1" t="n">
+      <c r="D57" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="1" t="n">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A58" s="1">
         <v>58</v>
       </c>
       <c r="B58" s="1" t="s">
@@ -1615,12 +1836,12 @@
       <c r="C58" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="D58" s="1" t="n">
+      <c r="D58" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="1" t="n">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A59" s="1">
         <v>59</v>
       </c>
       <c r="B59" s="1" t="s">
@@ -1629,12 +1850,12 @@
       <c r="C59" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="D59" s="1" t="n">
+      <c r="D59" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="1" t="n">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A60" s="1">
         <v>60</v>
       </c>
       <c r="B60" s="1" t="s">
@@ -1643,12 +1864,12 @@
       <c r="C60" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="D60" s="1" t="n">
+      <c r="D60" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="1" t="n">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A61" s="1">
         <v>61</v>
       </c>
       <c r="B61" s="1" t="s">
@@ -1657,12 +1878,12 @@
       <c r="C61" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="D61" s="1" t="n">
+      <c r="D61" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="1" t="n">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A62" s="1">
         <v>62</v>
       </c>
       <c r="B62" s="1" t="s">
@@ -1671,12 +1892,12 @@
       <c r="C62" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="D62" s="1" t="n">
+      <c r="D62" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="1" t="n">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A63" s="1">
         <v>63</v>
       </c>
       <c r="B63" s="1" t="s">
@@ -1685,12 +1906,12 @@
       <c r="C63" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="D63" s="1" t="n">
+      <c r="D63" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="1" t="n">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A64" s="1">
         <v>64</v>
       </c>
       <c r="B64" s="1" t="s">
@@ -1699,12 +1920,12 @@
       <c r="C64" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="D64" s="1" t="n">
+      <c r="D64" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="1" t="n">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A65" s="1">
         <v>65</v>
       </c>
       <c r="B65" s="1" t="s">
@@ -1713,15 +1934,15 @@
       <c r="C65" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="D65" s="1" t="n">
+      <c r="D65" s="1">
         <v>2</v>
       </c>
       <c r="E65" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="1" t="n">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A66" s="1">
         <v>66</v>
       </c>
       <c r="B66" s="1" t="s">
@@ -1730,12 +1951,12 @@
       <c r="C66" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="D66" s="1" t="n">
+      <c r="D66" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="1" t="n">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A67" s="1">
         <v>67</v>
       </c>
       <c r="B67" s="1" t="s">
@@ -1744,12 +1965,12 @@
       <c r="C67" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="D67" s="1" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="1" t="n">
+      <c r="D67" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A68" s="1">
         <v>68</v>
       </c>
       <c r="B68" s="1" t="s">
@@ -1758,15 +1979,15 @@
       <c r="C68" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="D68" s="1" t="n">
+      <c r="D68" s="1">
         <v>1</v>
       </c>
       <c r="E68" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="1" t="n">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A69" s="1">
         <v>69</v>
       </c>
       <c r="B69" s="1" t="s">
@@ -1775,12 +1996,12 @@
       <c r="C69" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="D69" s="1" t="n">
+      <c r="D69" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="1" t="n">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A70" s="1">
         <v>70</v>
       </c>
       <c r="B70" s="1" t="s">
@@ -1789,12 +2010,12 @@
       <c r="C70" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="D70" s="1" t="n">
+      <c r="D70" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="1" t="n">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A71" s="1">
         <v>71</v>
       </c>
       <c r="B71" s="1" t="s">
@@ -1803,12 +2024,12 @@
       <c r="C71" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="D71" s="1" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="1" t="n">
+      <c r="D71" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A72" s="1">
         <v>72</v>
       </c>
       <c r="B72" s="1" t="s">
@@ -1817,12 +2038,12 @@
       <c r="C72" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="D72" s="1" t="n">
+      <c r="D72" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="1" t="n">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A73" s="1">
         <v>73</v>
       </c>
       <c r="B73" s="1" t="s">
@@ -1831,12 +2052,12 @@
       <c r="C73" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="D73" s="1" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="1" t="n">
+      <c r="D73" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A74" s="1">
         <v>74</v>
       </c>
       <c r="B74" s="1" t="s">
@@ -1845,15 +2066,15 @@
       <c r="C74" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="D74" s="1" t="n">
+      <c r="D74" s="1">
         <v>1</v>
       </c>
       <c r="E74" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="1" t="n">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A75" s="1">
         <v>75</v>
       </c>
       <c r="B75" s="1" t="s">
@@ -1862,12 +2083,12 @@
       <c r="C75" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="D75" s="1" t="n">
+      <c r="D75" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A76" s="1" t="n">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A76" s="1">
         <v>76</v>
       </c>
       <c r="B76" s="1" t="s">
@@ -1876,12 +2097,12 @@
       <c r="C76" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="D76" s="1" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A77" s="1" t="n">
+      <c r="D76" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A77" s="1">
         <v>77</v>
       </c>
       <c r="B77" s="1" t="s">
@@ -1890,12 +2111,12 @@
       <c r="C77" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="D77" s="1" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A78" s="1" t="n">
+      <c r="D77" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A78" s="1">
         <v>78</v>
       </c>
       <c r="B78" s="1" t="s">
@@ -1904,15 +2125,15 @@
       <c r="C78" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="D78" s="1" t="n">
+      <c r="D78" s="1">
         <v>1</v>
       </c>
       <c r="E78" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A79" s="1" t="n">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A79" s="1">
         <v>79</v>
       </c>
       <c r="B79" s="1" t="s">
@@ -1921,12 +2142,12 @@
       <c r="C79" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="D79" s="1" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A80" s="1" t="n">
+      <c r="D79" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A80" s="1">
         <v>80</v>
       </c>
       <c r="B80" s="1" t="s">
@@ -1935,12 +2156,12 @@
       <c r="C80" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="D80" s="1" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A81" s="1" t="n">
+      <c r="D80" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A81" s="1">
         <v>81</v>
       </c>
       <c r="B81" s="1" t="s">
@@ -1949,15 +2170,15 @@
       <c r="C81" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="D81" s="1" t="n">
+      <c r="D81" s="1">
         <v>1</v>
       </c>
       <c r="E81" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A82" s="1" t="n">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A82" s="1">
         <v>82</v>
       </c>
       <c r="B82" s="1" t="s">
@@ -1966,15 +2187,15 @@
       <c r="C82" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="D82" s="1" t="n">
+      <c r="D82" s="1">
         <v>1</v>
       </c>
       <c r="E82" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A83" s="1" t="n">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A83" s="1">
         <v>83</v>
       </c>
       <c r="B83" s="1" t="s">
@@ -1983,15 +2204,15 @@
       <c r="C83" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="D83" s="1" t="n">
+      <c r="D83" s="1">
         <v>1</v>
       </c>
       <c r="E83" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A84" s="1" t="n">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A84" s="1">
         <v>84</v>
       </c>
       <c r="B84" s="1" t="s">
@@ -2000,15 +2221,15 @@
       <c r="C84" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="D84" s="1" t="n">
+      <c r="D84" s="1">
         <v>1</v>
       </c>
       <c r="E84" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A85" s="1" t="n">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A85" s="1">
         <v>85</v>
       </c>
       <c r="B85" s="1" t="s">
@@ -2017,15 +2238,15 @@
       <c r="C85" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="D85" s="1" t="n">
+      <c r="D85" s="1">
         <v>1</v>
       </c>
       <c r="E85" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A86" s="1" t="n">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A86" s="1">
         <v>86</v>
       </c>
       <c r="B86" s="1" t="s">
@@ -2034,12 +2255,12 @@
       <c r="C86" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="D86" s="1" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A87" s="1" t="n">
+      <c r="D86" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A87" s="1">
         <v>87</v>
       </c>
       <c r="B87" s="1" t="s">
@@ -2048,15 +2269,15 @@
       <c r="C87" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="D87" s="1" t="n">
+      <c r="D87" s="1">
         <v>2</v>
       </c>
       <c r="E87" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A88" s="1" t="n">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A88" s="1">
         <v>88</v>
       </c>
       <c r="B88" s="1" t="s">
@@ -2065,12 +2286,12 @@
       <c r="C88" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="D88" s="1" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A89" s="1" t="n">
+      <c r="D88" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A89" s="1">
         <v>89</v>
       </c>
       <c r="B89" s="1" t="s">
@@ -2079,12 +2300,12 @@
       <c r="C89" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="D89" s="1" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A90" s="1" t="n">
+      <c r="D89" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A90" s="1">
         <v>90</v>
       </c>
       <c r="B90" s="1" t="s">
@@ -2093,291 +2314,291 @@
       <c r="C90" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="D90" s="1" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A91" s="1" t="n">
+      <c r="D90" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A91" s="1">
         <v>91</v>
       </c>
       <c r="C91" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="D91" s="1" t="n">
+      <c r="D91" s="1">
         <v>1</v>
       </c>
       <c r="F91" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="G91" s="1" t="n">
-        <v>21</v>
-      </c>
-      <c r="H91" s="1" t="n">
+      <c r="G91" s="1">
+        <v>22</v>
+      </c>
+      <c r="H91" s="1">
         <v>4</v>
       </c>
     </row>
-    <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A92" s="1" t="n">
+    <row r="92" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A92" s="1">
         <v>92</v>
       </c>
       <c r="C92" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="D92" s="1" t="n">
+      <c r="D92" s="1">
         <v>1</v>
       </c>
       <c r="F92" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="G92" s="1" t="n">
-        <v>21</v>
-      </c>
-      <c r="H92" s="1" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A93" s="1" t="n">
+      <c r="G92" s="1">
+        <v>22</v>
+      </c>
+      <c r="H92" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A93" s="1">
         <v>93</v>
       </c>
       <c r="C93" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="D93" s="1" t="n">
+      <c r="D93" s="1">
         <v>1</v>
       </c>
       <c r="F93" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="G93" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="H93" s="1" t="n">
+      <c r="G93" s="1">
+        <v>8</v>
+      </c>
+      <c r="H93" s="1">
         <v>4</v>
       </c>
     </row>
-    <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A94" s="1" t="n">
+    <row r="94" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A94" s="1">
         <v>94</v>
       </c>
       <c r="C94" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="D94" s="1" t="n">
+      <c r="D94" s="1">
         <v>1</v>
       </c>
       <c r="F94" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="G94" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="H94" s="1" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A95" s="1" t="n">
+      <c r="G94" s="1">
+        <v>8</v>
+      </c>
+      <c r="H94" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A95" s="1">
         <v>95</v>
       </c>
       <c r="C95" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="D95" s="1" t="n">
+      <c r="D95" s="1">
         <v>1</v>
       </c>
       <c r="F95" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="G95" s="1" t="n">
-        <v>54</v>
-      </c>
-      <c r="H95" s="1" t="n">
+      <c r="G95" s="1">
+        <v>55</v>
+      </c>
+      <c r="H95" s="1">
         <v>4</v>
       </c>
     </row>
-    <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A96" s="1" t="n">
+    <row r="96" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A96" s="1">
         <v>96</v>
       </c>
       <c r="C96" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="D96" s="1" t="n">
+      <c r="D96" s="1">
         <v>1</v>
       </c>
       <c r="F96" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="G96" s="1" t="n">
-        <v>54</v>
-      </c>
-      <c r="H96" s="1" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="97" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A97" s="1" t="n">
+      <c r="G96" s="1">
+        <v>55</v>
+      </c>
+      <c r="H96" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A97" s="1">
         <v>97</v>
       </c>
       <c r="C97" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="D97" s="1" t="n">
+      <c r="D97" s="1">
         <v>1</v>
       </c>
       <c r="F97" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="G97" s="1" t="n">
-        <v>17</v>
-      </c>
-      <c r="H97" s="1" t="n">
+      <c r="G97" s="1">
+        <v>18</v>
+      </c>
+      <c r="H97" s="1">
         <v>4</v>
       </c>
     </row>
-    <row r="98" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A98" s="1" t="n">
+    <row r="98" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A98" s="1">
         <v>98</v>
       </c>
       <c r="C98" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="D98" s="1" t="n">
+      <c r="D98" s="1">
         <v>1</v>
       </c>
       <c r="F98" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="G98" s="1" t="n">
-        <v>17</v>
-      </c>
-      <c r="H98" s="1" t="n">
+      <c r="G98" s="1">
+        <v>18</v>
+      </c>
+      <c r="H98" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="99" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A99" s="1" t="n">
+    <row r="99" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A99" s="1">
         <v>99</v>
       </c>
       <c r="C99" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="D99" s="1" t="n">
+      <c r="D99" s="1">
         <v>1</v>
       </c>
       <c r="F99" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="G99" s="1" t="n">
-        <v>27</v>
-      </c>
-      <c r="H99" s="1" t="n">
+      <c r="G99" s="1">
+        <v>28</v>
+      </c>
+      <c r="H99" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="100" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A100" s="1" t="n">
+    <row r="100" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A100" s="1">
         <v>100</v>
       </c>
       <c r="C100" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="D100" s="1" t="n">
+      <c r="D100" s="1">
         <v>1</v>
       </c>
       <c r="F100" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="G100" s="1" t="n">
-        <v>27</v>
-      </c>
-      <c r="H100" s="1" t="n">
+      <c r="G100" s="1">
+        <v>28</v>
+      </c>
+      <c r="H100" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="101" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A101" s="1" t="n">
+    <row r="101" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A101" s="1">
         <v>101</v>
       </c>
       <c r="C101" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="D101" s="1" t="n">
+      <c r="D101" s="1">
         <v>1</v>
       </c>
       <c r="F101" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="G101" s="1" t="n">
-        <v>44</v>
-      </c>
-      <c r="H101" s="1" t="n">
+      <c r="G101" s="1">
+        <v>45</v>
+      </c>
+      <c r="H101" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="102" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A102" s="1" t="n">
+    <row r="102" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A102" s="1">
         <v>102</v>
       </c>
       <c r="C102" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="D102" s="1" t="n">
+      <c r="D102" s="1">
         <v>1</v>
       </c>
       <c r="F102" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="G102" s="1" t="n">
-        <v>44</v>
-      </c>
-      <c r="H102" s="1" t="n">
+      <c r="G102" s="1">
+        <v>45</v>
+      </c>
+      <c r="H102" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="103" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A103" s="1" t="n">
+    <row r="103" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A103" s="1">
         <v>103</v>
       </c>
       <c r="C103" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="D103" s="1" t="n">
+      <c r="D103" s="1">
         <v>1</v>
       </c>
       <c r="F103" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="G103" s="1" t="n">
-        <v>19</v>
-      </c>
-      <c r="H103" s="1" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="104" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A104" s="1" t="n">
+      <c r="G103" s="1">
+        <v>20</v>
+      </c>
+      <c r="H103" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A104" s="1">
         <v>104</v>
       </c>
       <c r="C104" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="D104" s="1" t="n">
+      <c r="D104" s="1">
         <v>1</v>
       </c>
       <c r="F104" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="G104" s="1" t="n">
-        <v>19</v>
-      </c>
-      <c r="H104" s="1" t="n">
+      <c r="G104" s="1">
+        <v>20</v>
+      </c>
+      <c r="H104" s="1">
         <v>4</v>
       </c>
     </row>
-    <row r="105" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="105" spans="1:8" x14ac:dyDescent="0.35">
       <c r="D105" s="1" t="s">
         <v>199</v>
       </c>
@@ -2388,351 +2609,345 @@
         <v>201</v>
       </c>
     </row>
-    <row r="106" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="106" spans="1:8" x14ac:dyDescent="0.35">
       <c r="D106" s="1" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="107" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="107" spans="1:8" x14ac:dyDescent="0.35">
       <c r="D107" s="1" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="108" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="108" spans="1:8" x14ac:dyDescent="0.35">
       <c r="D108" s="1" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <headerFooter>
+    <oddHeader>&amp;C&amp;"Calibri"&amp;10&amp;K000000{PRIVATE &amp; PERSONAL}&amp;1#</oddHeader>
   </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C28"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D34" activeCellId="0" sqref="D34"/>
+    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14453125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="27.24"/>
+    <col min="3" max="3" width="27.26953125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B1" s="1" t="n">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1" s="1">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1">
         <v>4</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="n">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2" s="1">
         <v>2</v>
       </c>
-      <c r="B2" s="1" t="n">
+      <c r="B2" s="1">
         <v>6</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="n">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A3" s="1">
         <v>3</v>
       </c>
-      <c r="B3" s="1" t="n">
+      <c r="B3" s="1">
         <v>7</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="n">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A4" s="1">
         <v>4</v>
       </c>
-      <c r="B4" s="1" t="n">
+      <c r="B4" s="1">
         <v>9</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="n">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A5" s="1">
         <v>5</v>
       </c>
-      <c r="B5" s="1" t="n">
+      <c r="B5" s="1">
         <v>14</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="n">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A6" s="1">
         <v>6</v>
       </c>
-      <c r="B6" s="1" t="n">
+      <c r="B6" s="1">
         <v>17</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1" t="n">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A7" s="1">
         <v>7</v>
       </c>
-      <c r="B7" s="1" t="n">
+      <c r="B7" s="1">
         <v>21</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B8" s="1" t="n">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A8" s="1">
+        <v>8</v>
+      </c>
+      <c r="B8" s="1">
         <v>23</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="1" t="n">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A9" s="1">
         <v>9</v>
       </c>
-      <c r="B9" s="1" t="n">
+      <c r="B9" s="1">
         <v>25</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="1" t="n">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A10" s="1">
         <v>10</v>
       </c>
-      <c r="B10" s="1" t="n">
+      <c r="B10" s="1">
         <v>28</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="1" t="n">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A11" s="1">
         <v>11</v>
       </c>
-      <c r="B11" s="1" t="n">
+      <c r="B11" s="1">
         <v>31</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="1" t="n">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A12" s="1">
         <v>12</v>
       </c>
-      <c r="B12" s="1" t="n">
+      <c r="B12" s="1">
         <v>35</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="1" t="n">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A13" s="1">
         <v>13</v>
       </c>
-      <c r="B13" s="1" t="n">
+      <c r="B13" s="1">
         <v>37</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="1" t="n">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A14" s="1">
         <v>14</v>
       </c>
-      <c r="B14" s="1" t="n">
+      <c r="B14" s="1">
         <v>38</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="1" t="n">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A15" s="1">
         <v>15</v>
       </c>
-      <c r="B15" s="1" t="n">
+      <c r="B15" s="1">
         <v>40</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="1" t="n">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A16" s="1">
         <v>16</v>
       </c>
-      <c r="B16" s="1" t="n">
+      <c r="B16" s="1">
         <v>42</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="1" t="n">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A17" s="1">
         <v>17</v>
       </c>
-      <c r="B17" s="1" t="n">
+      <c r="B17" s="1">
         <v>44</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="1" t="n">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A18" s="1">
         <v>18</v>
       </c>
-      <c r="B18" s="1" t="n">
+      <c r="B18" s="1">
         <v>45</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="1" t="n">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A19" s="1">
         <v>19</v>
       </c>
-      <c r="B19" s="1" t="n">
+      <c r="B19" s="1">
         <v>65</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="1" t="n">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A20" s="1">
         <v>20</v>
       </c>
-      <c r="B20" s="1" t="n">
+      <c r="B20" s="1">
         <v>68</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="1" t="n">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A21" s="1">
         <v>21</v>
       </c>
-      <c r="B21" s="1" t="n">
+      <c r="B21" s="1">
         <v>74</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="1" t="n">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A22" s="1">
         <v>22</v>
       </c>
-      <c r="B22" s="1" t="n">
+      <c r="B22" s="1">
         <v>78</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="1" t="n">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A23" s="1">
         <v>23</v>
       </c>
-      <c r="B23" s="1" t="n">
+      <c r="B23" s="1">
         <v>81</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="1" t="n">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A24" s="1">
         <v>24</v>
       </c>
-      <c r="B24" s="1" t="n">
+      <c r="B24" s="1">
         <v>82</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="1" t="n">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A25" s="1">
         <v>25</v>
       </c>
-      <c r="B25" s="1" t="n">
+      <c r="B25" s="1">
         <v>83</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="1" t="n">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A26" s="1">
         <v>26</v>
       </c>
-      <c r="B26" s="1" t="n">
+      <c r="B26" s="1">
         <v>84</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="1" t="n">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A27" s="1">
         <v>27</v>
       </c>
-      <c r="B27" s="1" t="n">
+      <c r="B27" s="1">
         <v>85</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="1" t="n">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A28" s="1">
         <v>28</v>
       </c>
-      <c r="B28" s="1" t="n">
+      <c r="B28" s="1">
         <v>87</v>
       </c>
       <c r="C28" s="1" t="s">
@@ -2740,11 +2955,10 @@
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;Kffffff&amp;A</oddHeader>
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <headerFooter>
+    <oddHeader>&amp;C&amp;"Calibri"&amp;10&amp;K000000{PRIVATE &amp; PERSONAL}&amp;1#_x000D_&amp;"Calibri"&amp;11&amp;K000000&amp;"Times New Roman,Regular"&amp;12&amp;Kffffff&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;KffffffPage &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
